--- a/docs/PTA2_DDC_80/PTA2_DDC_80_05.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731781294.4348423</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731781295.7265084</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781294.4348423.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781295.7265084.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731781296.6825385</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731781298.986774</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781296.6825385.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781298.986774.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.99</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731781301.8310642</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731781301.8310642.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731781301.8310642.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.55</v>
       </c>
-      <c r="J5" t="n">
-        <v>277.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>275.69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.860000000000014</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731781305.1636546</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731781307.2015254</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781305.1636546.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781307.2015254.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>128.01</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.98</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.02999999999998693</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -739,95 +779,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731781311.8250325</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731781311.8250325.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731781311.8250325.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>127.59</v>
       </c>
-      <c r="J7" t="n">
-        <v>127.59</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>127.48</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731781315.156234</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731781316.666373</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781315.156234.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781316.666373.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6398</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>28.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -835,51 +887,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731781317.4863355</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731781320.3588333</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781317.4863355.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781320.3588333.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6436</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -887,95 +945,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731781320.5471606</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731781320.5471606.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731781320.5471606.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6425.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6425.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6394.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731781324.4147403</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731781325.519341</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781324.4147403.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781325.519341.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>497.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>496.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -983,51 +1053,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731781326.097014</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731781328.3791227</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781326.097014.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781328.3791227.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>497.55</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>497.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1035,95 +1111,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731781328.708607</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731781328.708607.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731781328.708607.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>496.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>496.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>492.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-3.700000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731781332.2056544</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731781334.452705</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781332.2056544.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781334.452705.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>223.84</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>224.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731781334.751529</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731781336.0920844</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781334.751529.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781336.0920844.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>224.78</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>224.71</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1183,95 +1277,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731781338.2455106</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731781338.2455106.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731781338.2455106.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>224.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>223.39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.8100000000000023</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731781339.951032</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731781341.2706397</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781339.951032.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781341.2706397.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1005.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1279,51 +1385,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731781341.8843234</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731781343.2472732</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781341.8843234.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781343.2472732.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1003.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1331,51 +1443,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731781343.7929003</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731781346.0449831</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781343.7929003.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781346.0449831.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1008</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1008.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1383,95 +1501,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731781346.618745</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731781346.618745.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731781346.618745.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1005.2</v>
       </c>
-      <c r="J20" t="n">
-        <v>1005.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1004.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731781355.7434528</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731781356.739382</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781355.7434528.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781356.739382.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>124.22</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>124.34</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1479,51 +1609,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731781357.3933017</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731781360.9225748</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781357.3933017.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781360.9225748.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>124.34</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>124.32</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1531,51 +1667,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731781361.0228107</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731781361.1444638</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781361.0228107.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781361.1444638.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>124.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>124.42</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1583,95 +1725,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731781362.1024325</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731781362.1024325.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731781362.1024325.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>124.18</v>
       </c>
-      <c r="J24" t="n">
-        <v>124.18</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>124.14</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731781362.7983136</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731781363.0405993</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781362.7983136.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781363.0405993.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>161.44</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>160.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1679,51 +1833,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731781365.3296773</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731781367.0490496</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781365.3296773.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781367.0490496.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>160.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>160.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1731,51 +1891,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731781367.366888</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731781369.5501304</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781367.366888.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781369.5501304.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>160.94</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>160.86</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1783,95 +1949,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731781369.7487018</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731781369.7487018.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731781369.7487018.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>160.58</v>
       </c>
-      <c r="J28" t="n">
-        <v>160.58</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>160.56</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731781373.1798654</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731781374.8013906</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781373.1798654.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781374.8013906.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>48.93</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>49.06</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1879,51 +2057,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731781377.2213767</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731781377.9774346</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781377.2213767.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781377.9774346.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>49.235</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>49.12</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.115000000000002</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1931,95 +2115,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731781378.4212205</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731781378.4212205.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731781378.4212205.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>49.11</v>
       </c>
-      <c r="J31" t="n">
-        <v>49.11</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>48.845</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.2650000000000006</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731781382.2740011</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731781384.102377</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781382.2740011.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781384.102377.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2027,51 +2223,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731781385.7012722</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731781387.0626328</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781385.7012722.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781387.0626328.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1380.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1379</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2079,51 +2281,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731781387.32792</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731781387.4589329</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781387.32792.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781387.4589329.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1376.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>3</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2131,95 +2339,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731781387.8885307</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731781387.8885307.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731781387.8885307.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1376.4</v>
       </c>
-      <c r="J35" t="n">
-        <v>1376.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1375.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731781391.372544</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731781391.411543</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781391.372544.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781391.411543.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>59.05</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>59.13</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2227,51 +2447,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731781391.8200688</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731781392.697283</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781391.8200688.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781392.697283.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>58.97</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>59.39</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -2279,51 +2505,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731781393.331255</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731781394.6678414</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781393.331255.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781394.6678414.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>59.55</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>59.5</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2331,95 +2563,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731781396.7591712</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731781396.7591712.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731781396.7591712.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.53</v>
       </c>
-      <c r="J39" t="n">
-        <v>59.53</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>59.38</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731781398.9323986</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731781400.9265232</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781398.9323986.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781400.9265232.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>95.98999999999999</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>96</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2427,95 +2671,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731781401.9496052</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731781401.9496052.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731781401.9496052.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>95.84999999999999</v>
       </c>
-      <c r="J41" t="n">
-        <v>95.84999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>95.63</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731781406.1014457</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731781406.2721093</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781406.1014457.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781406.2721093.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>56.05</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>55.93</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2523,51 +2779,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731781406.5402014</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731781407.2715454</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781406.5402014.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781407.2715454.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>55.7</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>56.12</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4199999999999946</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2575,95 +2837,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731781411.7931108</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731781411.7931108.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731781411.7931108.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>55.98</v>
       </c>
-      <c r="J44" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>55.96</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731781414.4709334</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731781415.7442327</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781414.4709334.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781415.7442327.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>139.42</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>141.74</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>2.320000000000022</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1.66</v>
       </c>
     </row>
@@ -2671,51 +2945,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731781416.4886286</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731781417.183401</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781416.4886286.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781417.183401.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>142.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>142.12</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2723,43 +3003,49 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731781420.5804718</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731781420.5804718.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731781420.5804718.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>141.34</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>141.34</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2767,51 +3053,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731781422.0350568</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731781424.075233</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781422.0350568.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781424.075233.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>19.964</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>19.845</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.1189999999999998</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -2819,51 +3111,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731781424.9627342</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731781427.6899693</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781424.9627342.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781427.6899693.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>19.93</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>19.907</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.02299999999999969</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2871,51 +3169,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731781427.787738</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731781428.254294</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781427.787738.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781428.254294.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>19.875</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>19.898</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02299999999999969</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2923,95 +3227,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731781428.661747</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731781428.661747.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731781428.661747.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>19.791</v>
       </c>
-      <c r="J51" t="n">
-        <v>19.791</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>19.761</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731781433.6818836</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731781436.5896628</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781433.6818836.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781436.5896628.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>659.25</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>660.05</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3019,95 +3335,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731781437.0031812</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731781437.0031812.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731781437.0031812.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>658.8</v>
       </c>
-      <c r="J53" t="n">
-        <v>658.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731781440.3407822</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731781441.0310142</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781440.3407822.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781441.0310142.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>155.87</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>155.17</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.7000000000000171</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3115,95 +3443,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731781442.737199</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731781442.737199.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731781442.737199.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>154.84</v>
       </c>
-      <c r="J55" t="n">
-        <v>154.84</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>153.97</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.8700000000000045</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731781443.7806737</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731781444.6760871</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781443.7806737.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781444.6760871.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.09584000000000001</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.09546</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.0003800000000000053</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3211,51 +3551,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731781446.0704997</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731781447.3731112</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781446.0704997.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781447.3731112.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>0.095</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.09488000000000001</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.0001199999999999951</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3263,51 +3609,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731781448.3964097</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731781451.0165713</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781448.3964097.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781451.0165713.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.09522000000000001</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.09526000000000001</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-3.999999999999837e-05</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3315,95 +3667,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731781451.8201225</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731781451.8201225.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731781451.8201225.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.0949</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.0949</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.09504</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0001400000000000012</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731781452.403153</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731781453.244427</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781452.403153.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731781453.244427.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>95.94</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>95.45999999999999</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.480000000000004</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3411,95 +3775,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731781455.1324623</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731781455.1324623.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731781455.1324623.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>94.95</v>
       </c>
-      <c r="J61" t="n">
-        <v>94.95</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>94.73</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731781458.509032</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731781460.2448244</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781458.509032.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781460.2448244.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>2893.35</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>2897.3</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>3.950000000000273</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3507,51 +3883,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731781461.500912</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731781463.5899136</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781461.500912.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781463.5899136.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>2906.5</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>2904.4</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>2.099999999999909</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3559,95 +3941,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731781463.8597019</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731781463.8597019.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731781463.8597019.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2898.6</v>
       </c>
-      <c r="J64" t="n">
-        <v>2898.6</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-10.59999999999991</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731781465.575847</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731781466.4697745</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731781465.575847.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731781466.4697745.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>11.884</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>11.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01600000000000001</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3655,44 +4049,50 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731781467.778327</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731781467.778327.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731781467.778327.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>11.914</v>
       </c>
-      <c r="J66" t="n">
-        <v>11.914</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>11.96</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.04600000000000115</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -3753,19 +4153,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0730000000000004</v>
+        <v>-0.1030000000000015</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0182500000000001</v>
+        <v>-0.02575000000000038</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.36</v>
+        <v>-0.51</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3">
@@ -3775,19 +4175,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5500000000000043</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1375000000000011</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.93</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -3797,19 +4197,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.400000000000091</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6000000000000227</v>
+        <v>0.3500000000000227</v>
       </c>
       <c r="E4" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -3819,19 +4219,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002200000000000119</v>
+        <v>0.0003600000000000131</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.500000000000296e-05</v>
+        <v>9.000000000000327e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -3841,19 +4241,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3600000000000136</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.08000000000000185</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3863,19 +4263,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.399999999999977</v>
+        <v>1.999999999999886</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.4999999999999716</v>
       </c>
       <c r="E7" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -3885,16 +4285,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9199999999999591</v>
+        <v>0.8999999999999488</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2299999999999898</v>
+        <v>0.2249999999999872</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.14</v>
@@ -3929,19 +4329,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.539999999999992</v>
+        <v>0.519999999999996</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1799999999999974</v>
+        <v>0.173333333333332</v>
       </c>
       <c r="E10" t="n">
-        <v>0.96</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
@@ -3951,19 +4351,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.610000000000014</v>
+        <v>-0.25</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5366666666666712</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.58</v>
+        <v>-0.09000000000000008</v>
       </c>
       <c r="F11" t="n">
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
@@ -3973,19 +4373,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.75</v>
+        <v>-4.450000000000045</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>-1.483333333333348</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.15</v>
+        <v>-0.9</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="13">
@@ -3995,19 +4395,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.050000000000182</v>
+        <v>-4.549999999999727</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>2.016666666666727</v>
+        <v>-1.516666666666576</v>
       </c>
       <c r="E13" t="n">
-        <v>0.21</v>
+        <v>-0.16</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14">
@@ -4017,19 +4417,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4299999999999784</v>
+        <v>-0.3800000000000239</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1433333333333261</v>
+        <v>-0.1266666666666746</v>
       </c>
       <c r="E14" t="n">
-        <v>0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
@@ -4039,19 +4439,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2450000000000045</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08166666666666818</v>
+        <v>-0.00666666666666534</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.17</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
@@ -4061,19 +4461,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>10.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4899999999999999</v>
+        <v>0.009999999999999953</v>
       </c>
       <c r="F16" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4083,19 +4483,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7000000000000171</v>
+        <v>-0.1699999999999875</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3500000000000085</v>
+        <v>-0.08499999999999375</v>
       </c>
       <c r="E17" t="n">
-        <v>0.45</v>
+        <v>-0.11</v>
       </c>
       <c r="F17" t="n">
-        <v>0.22</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="18">
@@ -4105,19 +4505,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01600000000000001</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008000000000000007</v>
+        <v>-0.01500000000000057</v>
       </c>
       <c r="E18" t="n">
-        <v>0.13</v>
+        <v>-0.26</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="19">
@@ -4127,19 +4527,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.480000000000004</v>
+        <v>0.2600000000000051</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240000000000002</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="F19" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
@@ -4149,19 +4549,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.7999999999999545</v>
+        <v>-2.599999999999909</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3999999999999773</v>
+        <v>-1.299999999999955</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.12</v>
+        <v>-0.39</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21">
@@ -4171,19 +4571,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02999999999998693</v>
+        <v>-0.1399999999999864</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01499999999999346</v>
+        <v>-0.06999999999999318</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="22">
@@ -4193,19 +4593,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01000000000000512</v>
+        <v>-0.230000000000004</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005000000000002558</v>
+        <v>-0.115000000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01</v>
+        <v>-0.24</v>
       </c>
       <c r="F22" t="n">
-        <v>-0</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="23">
